--- a/storage/app/private/deskel/exports/akun_pengguna.xlsx
+++ b/storage/app/private/deskel/exports/akun_pengguna.xlsx
@@ -32,7 +32,7 @@
     <t>RW001</t>
   </si>
   <si>
-    <t>UAEb39</t>
+    <t>Pmgt24</t>
   </si>
   <si>
     <t>RW 002</t>
@@ -41,7 +41,7 @@
     <t>RW002</t>
   </si>
   <si>
-    <t>IK3D10</t>
+    <t>ZWMx89</t>
   </si>
   <si>
     <t>RT 001 / RW 001</t>
@@ -50,7 +50,7 @@
     <t>RT001_RW001</t>
   </si>
   <si>
-    <t>QnZx48</t>
+    <t>7DvZ84</t>
   </si>
   <si>
     <t>RT 002 / RW 001</t>
@@ -59,7 +59,7 @@
     <t>RT002_RW001</t>
   </si>
   <si>
-    <t>x2To59</t>
+    <t>Y6Pw28</t>
   </si>
   <si>
     <t>RT 003 / RW 001</t>
@@ -68,7 +68,7 @@
     <t>RT003_RW001</t>
   </si>
   <si>
-    <t>uklD74</t>
+    <t>xLEF54</t>
   </si>
   <si>
     <t>RT 004 / RW 001</t>
@@ -77,7 +77,7 @@
     <t>RT004_RW001</t>
   </si>
   <si>
-    <t>j69414</t>
+    <t>nIEq25</t>
   </si>
   <si>
     <t>RT 005 / RW 001</t>
@@ -86,7 +86,7 @@
     <t>RT005_RW001</t>
   </si>
   <si>
-    <t>6JhU40</t>
+    <t>Vbbz45</t>
   </si>
   <si>
     <t>RT 006 / RW 001</t>
@@ -95,7 +95,7 @@
     <t>RT006_RW001</t>
   </si>
   <si>
-    <t>Uaup43</t>
+    <t>qQSl25</t>
   </si>
   <si>
     <t>RT 007 / RW 001</t>
@@ -104,7 +104,7 @@
     <t>RT007_RW001</t>
   </si>
   <si>
-    <t>zVtH94</t>
+    <t>17PB68</t>
   </si>
   <si>
     <t>RT 008 / RW 001</t>
@@ -113,7 +113,7 @@
     <t>RT008_RW001</t>
   </si>
   <si>
-    <t>nvfs99</t>
+    <t>D8VV79</t>
   </si>
   <si>
     <t>RT 009 / RW 001</t>
@@ -122,7 +122,7 @@
     <t>RT009_RW001</t>
   </si>
   <si>
-    <t>Ukef10</t>
+    <t>ZLOU82</t>
   </si>
   <si>
     <t>RT 010 / RW 001</t>
@@ -131,7 +131,7 @@
     <t>RT010_RW001</t>
   </si>
   <si>
-    <t>kSrj38</t>
+    <t>DE8U13</t>
   </si>
   <si>
     <t>RT 001 / RW 002</t>
@@ -140,7 +140,7 @@
     <t>RT001_RW002</t>
   </si>
   <si>
-    <t>M9ga82</t>
+    <t>dRRw50</t>
   </si>
   <si>
     <t>RT 002 / RW 002</t>
@@ -149,7 +149,7 @@
     <t>RT002_RW002</t>
   </si>
   <si>
-    <t>jo5X37</t>
+    <t>IySy70</t>
   </si>
   <si>
     <t>RT 003 / RW 002</t>
@@ -158,7 +158,7 @@
     <t>RT003_RW002</t>
   </si>
   <si>
-    <t>P7FR18</t>
+    <t>XnNF94</t>
   </si>
   <si>
     <t>RT 004 / RW 002</t>
@@ -167,7 +167,7 @@
     <t>RT004_RW002</t>
   </si>
   <si>
-    <t>oO4242</t>
+    <t>FAgr66</t>
   </si>
   <si>
     <t>RT 005 / RW 002</t>
@@ -176,7 +176,7 @@
     <t>RT005_RW002</t>
   </si>
   <si>
-    <t>HcVk60</t>
+    <t>pyJ358</t>
   </si>
   <si>
     <t>RT 006 / RW 002</t>
@@ -185,7 +185,7 @@
     <t>RT006_RW002</t>
   </si>
   <si>
-    <t>z7cz15</t>
+    <t>tLks33</t>
   </si>
   <si>
     <t>RT 007 / RW 002</t>
@@ -194,7 +194,7 @@
     <t>RT007_RW002</t>
   </si>
   <si>
-    <t>czVt88</t>
+    <t>h7Ls63</t>
   </si>
   <si>
     <t>RT 008 / RW 002</t>
@@ -203,7 +203,7 @@
     <t>RT008_RW002</t>
   </si>
   <si>
-    <t>eozW50</t>
+    <t>0Plf66</t>
   </si>
   <si>
     <t>RT 009 / RW 002</t>
@@ -212,7 +212,7 @@
     <t>RT009_RW002</t>
   </si>
   <si>
-    <t>cQUF54</t>
+    <t>f1NL68</t>
   </si>
   <si>
     <t>RT 010 / RW 002</t>
@@ -221,7 +221,7 @@
     <t>RT010_RW002</t>
   </si>
   <si>
-    <t>2Vww15</t>
+    <t>17fc48</t>
   </si>
 </sst>
 </file>

--- a/storage/app/private/deskel/exports/akun_pengguna.xlsx
+++ b/storage/app/private/deskel/exports/akun_pengguna.xlsx
@@ -32,7 +32,7 @@
     <t>RW001</t>
   </si>
   <si>
-    <t>Pmgt24</t>
+    <t>LQr975</t>
   </si>
   <si>
     <t>RW 002</t>
@@ -41,7 +41,7 @@
     <t>RW002</t>
   </si>
   <si>
-    <t>ZWMx89</t>
+    <t>D4nA89</t>
   </si>
   <si>
     <t>RT 001 / RW 001</t>
@@ -50,7 +50,7 @@
     <t>RT001_RW001</t>
   </si>
   <si>
-    <t>7DvZ84</t>
+    <t>rFnc57</t>
   </si>
   <si>
     <t>RT 002 / RW 001</t>
@@ -59,7 +59,7 @@
     <t>RT002_RW001</t>
   </si>
   <si>
-    <t>Y6Pw28</t>
+    <t>Adjw92</t>
   </si>
   <si>
     <t>RT 003 / RW 001</t>
@@ -68,7 +68,7 @@
     <t>RT003_RW001</t>
   </si>
   <si>
-    <t>xLEF54</t>
+    <t>GbPn87</t>
   </si>
   <si>
     <t>RT 004 / RW 001</t>
@@ -77,7 +77,7 @@
     <t>RT004_RW001</t>
   </si>
   <si>
-    <t>nIEq25</t>
+    <t>B4HF61</t>
   </si>
   <si>
     <t>RT 005 / RW 001</t>
@@ -86,7 +86,7 @@
     <t>RT005_RW001</t>
   </si>
   <si>
-    <t>Vbbz45</t>
+    <t>onn418</t>
   </si>
   <si>
     <t>RT 006 / RW 001</t>
@@ -95,7 +95,7 @@
     <t>RT006_RW001</t>
   </si>
   <si>
-    <t>qQSl25</t>
+    <t>kHcD56</t>
   </si>
   <si>
     <t>RT 007 / RW 001</t>
@@ -104,7 +104,7 @@
     <t>RT007_RW001</t>
   </si>
   <si>
-    <t>17PB68</t>
+    <t>Ph0C90</t>
   </si>
   <si>
     <t>RT 008 / RW 001</t>
@@ -113,7 +113,7 @@
     <t>RT008_RW001</t>
   </si>
   <si>
-    <t>D8VV79</t>
+    <t>TUR169</t>
   </si>
   <si>
     <t>RT 009 / RW 001</t>
@@ -122,7 +122,7 @@
     <t>RT009_RW001</t>
   </si>
   <si>
-    <t>ZLOU82</t>
+    <t>Dc5A19</t>
   </si>
   <si>
     <t>RT 010 / RW 001</t>
@@ -131,7 +131,7 @@
     <t>RT010_RW001</t>
   </si>
   <si>
-    <t>DE8U13</t>
+    <t>NJi027</t>
   </si>
   <si>
     <t>RT 001 / RW 002</t>
@@ -140,7 +140,7 @@
     <t>RT001_RW002</t>
   </si>
   <si>
-    <t>dRRw50</t>
+    <t>Fvsy80</t>
   </si>
   <si>
     <t>RT 002 / RW 002</t>
@@ -149,7 +149,7 @@
     <t>RT002_RW002</t>
   </si>
   <si>
-    <t>IySy70</t>
+    <t>2arf25</t>
   </si>
   <si>
     <t>RT 003 / RW 002</t>
@@ -158,7 +158,7 @@
     <t>RT003_RW002</t>
   </si>
   <si>
-    <t>XnNF94</t>
+    <t>I9xV63</t>
   </si>
   <si>
     <t>RT 004 / RW 002</t>
@@ -167,7 +167,7 @@
     <t>RT004_RW002</t>
   </si>
   <si>
-    <t>FAgr66</t>
+    <t>wSUr83</t>
   </si>
   <si>
     <t>RT 005 / RW 002</t>
@@ -176,7 +176,7 @@
     <t>RT005_RW002</t>
   </si>
   <si>
-    <t>pyJ358</t>
+    <t>wpmm46</t>
   </si>
   <si>
     <t>RT 006 / RW 002</t>
@@ -185,7 +185,7 @@
     <t>RT006_RW002</t>
   </si>
   <si>
-    <t>tLks33</t>
+    <t>PZXC80</t>
   </si>
   <si>
     <t>RT 007 / RW 002</t>
@@ -194,7 +194,7 @@
     <t>RT007_RW002</t>
   </si>
   <si>
-    <t>h7Ls63</t>
+    <t>GVlt95</t>
   </si>
   <si>
     <t>RT 008 / RW 002</t>
@@ -203,7 +203,7 @@
     <t>RT008_RW002</t>
   </si>
   <si>
-    <t>0Plf66</t>
+    <t>KFqv86</t>
   </si>
   <si>
     <t>RT 009 / RW 002</t>
@@ -212,7 +212,7 @@
     <t>RT009_RW002</t>
   </si>
   <si>
-    <t>f1NL68</t>
+    <t>cYhB18</t>
   </si>
   <si>
     <t>RT 010 / RW 002</t>
@@ -221,7 +221,7 @@
     <t>RT010_RW002</t>
   </si>
   <si>
-    <t>17fc48</t>
+    <t>FpNf54</t>
   </si>
 </sst>
 </file>

--- a/storage/app/private/deskel/exports/akun_pengguna.xlsx
+++ b/storage/app/private/deskel/exports/akun_pengguna.xlsx
@@ -32,7 +32,7 @@
     <t>RW001</t>
   </si>
   <si>
-    <t>LQr975</t>
+    <t>uo3N56</t>
   </si>
   <si>
     <t>RW 002</t>
@@ -41,7 +41,7 @@
     <t>RW002</t>
   </si>
   <si>
-    <t>D4nA89</t>
+    <t>UCdQ86</t>
   </si>
   <si>
     <t>RT 001 / RW 001</t>
@@ -50,7 +50,7 @@
     <t>RT001_RW001</t>
   </si>
   <si>
-    <t>rFnc57</t>
+    <t>R8aO87</t>
   </si>
   <si>
     <t>RT 002 / RW 001</t>
@@ -59,7 +59,7 @@
     <t>RT002_RW001</t>
   </si>
   <si>
-    <t>Adjw92</t>
+    <t>HQDA25</t>
   </si>
   <si>
     <t>RT 003 / RW 001</t>
@@ -68,7 +68,7 @@
     <t>RT003_RW001</t>
   </si>
   <si>
-    <t>GbPn87</t>
+    <t>CHLA75</t>
   </si>
   <si>
     <t>RT 004 / RW 001</t>
@@ -77,7 +77,7 @@
     <t>RT004_RW001</t>
   </si>
   <si>
-    <t>B4HF61</t>
+    <t>3kVD30</t>
   </si>
   <si>
     <t>RT 005 / RW 001</t>
@@ -86,7 +86,7 @@
     <t>RT005_RW001</t>
   </si>
   <si>
-    <t>onn418</t>
+    <t>q1UQ74</t>
   </si>
   <si>
     <t>RT 006 / RW 001</t>
@@ -95,7 +95,7 @@
     <t>RT006_RW001</t>
   </si>
   <si>
-    <t>kHcD56</t>
+    <t>LEmO21</t>
   </si>
   <si>
     <t>RT 007 / RW 001</t>
@@ -104,7 +104,7 @@
     <t>RT007_RW001</t>
   </si>
   <si>
-    <t>Ph0C90</t>
+    <t>2sRy18</t>
   </si>
   <si>
     <t>RT 008 / RW 001</t>
@@ -113,7 +113,7 @@
     <t>RT008_RW001</t>
   </si>
   <si>
-    <t>TUR169</t>
+    <t>o7ID52</t>
   </si>
   <si>
     <t>RT 009 / RW 001</t>
@@ -122,7 +122,7 @@
     <t>RT009_RW001</t>
   </si>
   <si>
-    <t>Dc5A19</t>
+    <t>jp0I52</t>
   </si>
   <si>
     <t>RT 010 / RW 001</t>
@@ -131,7 +131,7 @@
     <t>RT010_RW001</t>
   </si>
   <si>
-    <t>NJi027</t>
+    <t>EKyb51</t>
   </si>
   <si>
     <t>RT 001 / RW 002</t>
@@ -140,7 +140,7 @@
     <t>RT001_RW002</t>
   </si>
   <si>
-    <t>Fvsy80</t>
+    <t>o4Lw37</t>
   </si>
   <si>
     <t>RT 002 / RW 002</t>
@@ -149,7 +149,7 @@
     <t>RT002_RW002</t>
   </si>
   <si>
-    <t>2arf25</t>
+    <t>whRw27</t>
   </si>
   <si>
     <t>RT 003 / RW 002</t>
@@ -158,7 +158,7 @@
     <t>RT003_RW002</t>
   </si>
   <si>
-    <t>I9xV63</t>
+    <t>oJFJ87</t>
   </si>
   <si>
     <t>RT 004 / RW 002</t>
@@ -167,7 +167,7 @@
     <t>RT004_RW002</t>
   </si>
   <si>
-    <t>wSUr83</t>
+    <t>AufZ72</t>
   </si>
   <si>
     <t>RT 005 / RW 002</t>
@@ -176,7 +176,7 @@
     <t>RT005_RW002</t>
   </si>
   <si>
-    <t>wpmm46</t>
+    <t>se0j41</t>
   </si>
   <si>
     <t>RT 006 / RW 002</t>
@@ -185,7 +185,7 @@
     <t>RT006_RW002</t>
   </si>
   <si>
-    <t>PZXC80</t>
+    <t>d8TJ11</t>
   </si>
   <si>
     <t>RT 007 / RW 002</t>
@@ -194,7 +194,7 @@
     <t>RT007_RW002</t>
   </si>
   <si>
-    <t>GVlt95</t>
+    <t>oxds40</t>
   </si>
   <si>
     <t>RT 008 / RW 002</t>
@@ -203,7 +203,7 @@
     <t>RT008_RW002</t>
   </si>
   <si>
-    <t>KFqv86</t>
+    <t>eZ8b13</t>
   </si>
   <si>
     <t>RT 009 / RW 002</t>
@@ -212,7 +212,7 @@
     <t>RT009_RW002</t>
   </si>
   <si>
-    <t>cYhB18</t>
+    <t>Kplc62</t>
   </si>
   <si>
     <t>RT 010 / RW 002</t>
@@ -221,7 +221,7 @@
     <t>RT010_RW002</t>
   </si>
   <si>
-    <t>FpNf54</t>
+    <t>GCEH40</t>
   </si>
 </sst>
 </file>

--- a/storage/app/private/deskel/exports/akun_pengguna.xlsx
+++ b/storage/app/private/deskel/exports/akun_pengguna.xlsx
@@ -15,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>plain_password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>RW 001</t>
   </si>
@@ -32,7 +23,7 @@
     <t>RW001</t>
   </si>
   <si>
-    <t>uo3N56</t>
+    <t>BnsV29</t>
   </si>
   <si>
     <t>RW 002</t>
@@ -41,7 +32,7 @@
     <t>RW002</t>
   </si>
   <si>
-    <t>UCdQ86</t>
+    <t>8sQK33</t>
   </si>
   <si>
     <t>RT 001 / RW 001</t>
@@ -50,7 +41,7 @@
     <t>RT001_RW001</t>
   </si>
   <si>
-    <t>R8aO87</t>
+    <t>61eW83</t>
   </si>
   <si>
     <t>RT 002 / RW 001</t>
@@ -59,7 +50,7 @@
     <t>RT002_RW001</t>
   </si>
   <si>
-    <t>HQDA25</t>
+    <t>VC0919</t>
   </si>
   <si>
     <t>RT 003 / RW 001</t>
@@ -68,7 +59,7 @@
     <t>RT003_RW001</t>
   </si>
   <si>
-    <t>CHLA75</t>
+    <t>0lgY38</t>
   </si>
   <si>
     <t>RT 004 / RW 001</t>
@@ -77,7 +68,7 @@
     <t>RT004_RW001</t>
   </si>
   <si>
-    <t>3kVD30</t>
+    <t>GOhc14</t>
   </si>
   <si>
     <t>RT 005 / RW 001</t>
@@ -86,7 +77,7 @@
     <t>RT005_RW001</t>
   </si>
   <si>
-    <t>q1UQ74</t>
+    <t>qaJc67</t>
   </si>
   <si>
     <t>RT 006 / RW 001</t>
@@ -95,7 +86,7 @@
     <t>RT006_RW001</t>
   </si>
   <si>
-    <t>LEmO21</t>
+    <t>s2Z875</t>
   </si>
   <si>
     <t>RT 007 / RW 001</t>
@@ -104,7 +95,7 @@
     <t>RT007_RW001</t>
   </si>
   <si>
-    <t>2sRy18</t>
+    <t>CnTP60</t>
   </si>
   <si>
     <t>RT 008 / RW 001</t>
@@ -113,7 +104,7 @@
     <t>RT008_RW001</t>
   </si>
   <si>
-    <t>o7ID52</t>
+    <t>NaZ421</t>
   </si>
   <si>
     <t>RT 009 / RW 001</t>
@@ -122,7 +113,7 @@
     <t>RT009_RW001</t>
   </si>
   <si>
-    <t>jp0I52</t>
+    <t>LeeY53</t>
   </si>
   <si>
     <t>RT 010 / RW 001</t>
@@ -131,7 +122,7 @@
     <t>RT010_RW001</t>
   </si>
   <si>
-    <t>EKyb51</t>
+    <t>QbE547</t>
   </si>
   <si>
     <t>RT 001 / RW 002</t>
@@ -140,7 +131,7 @@
     <t>RT001_RW002</t>
   </si>
   <si>
-    <t>o4Lw37</t>
+    <t>gLz455</t>
   </si>
   <si>
     <t>RT 002 / RW 002</t>
@@ -149,7 +140,7 @@
     <t>RT002_RW002</t>
   </si>
   <si>
-    <t>whRw27</t>
+    <t>YY4Y11</t>
   </si>
   <si>
     <t>RT 003 / RW 002</t>
@@ -158,7 +149,7 @@
     <t>RT003_RW002</t>
   </si>
   <si>
-    <t>oJFJ87</t>
+    <t>jCQY95</t>
   </si>
   <si>
     <t>RT 004 / RW 002</t>
@@ -167,7 +158,7 @@
     <t>RT004_RW002</t>
   </si>
   <si>
-    <t>AufZ72</t>
+    <t>a9jh80</t>
   </si>
   <si>
     <t>RT 005 / RW 002</t>
@@ -176,7 +167,7 @@
     <t>RT005_RW002</t>
   </si>
   <si>
-    <t>se0j41</t>
+    <t>h3AX24</t>
   </si>
   <si>
     <t>RT 006 / RW 002</t>
@@ -185,7 +176,7 @@
     <t>RT006_RW002</t>
   </si>
   <si>
-    <t>d8TJ11</t>
+    <t>GGzX42</t>
   </si>
   <si>
     <t>RT 007 / RW 002</t>
@@ -194,7 +185,7 @@
     <t>RT007_RW002</t>
   </si>
   <si>
-    <t>oxds40</t>
+    <t>nuOS65</t>
   </si>
   <si>
     <t>RT 008 / RW 002</t>
@@ -203,7 +194,7 @@
     <t>RT008_RW002</t>
   </si>
   <si>
-    <t>eZ8b13</t>
+    <t>4gNQ67</t>
   </si>
   <si>
     <t>RT 009 / RW 002</t>
@@ -212,7 +203,7 @@
     <t>RT009_RW002</t>
   </si>
   <si>
-    <t>Kplc62</t>
+    <t>BQ7h44</t>
   </si>
   <si>
     <t>RT 010 / RW 002</t>
@@ -221,7 +212,7 @@
     <t>RT010_RW002</t>
   </si>
   <si>
-    <t>GCEH40</t>
+    <t>2d0d98</t>
   </si>
 </sst>
 </file>
@@ -561,7 +552,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,17 +800,6 @@
       </c>
       <c r="C22" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/private/deskel/exports/akun_pengguna.xlsx
+++ b/storage/app/private/deskel/exports/akun_pengguna.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>RW 001</t>
   </si>
@@ -23,7 +23,7 @@
     <t>RW001</t>
   </si>
   <si>
-    <t>BnsV29</t>
+    <t>GTrl18</t>
   </si>
   <si>
     <t>RW 002</t>
@@ -32,7 +32,7 @@
     <t>RW002</t>
   </si>
   <si>
-    <t>8sQK33</t>
+    <t>yg9r70</t>
   </si>
   <si>
     <t>RT 001 / RW 001</t>
@@ -41,7 +41,7 @@
     <t>RT001_RW001</t>
   </si>
   <si>
-    <t>61eW83</t>
+    <t>jYz235</t>
   </si>
   <si>
     <t>RT 002 / RW 001</t>
@@ -50,7 +50,7 @@
     <t>RT002_RW001</t>
   </si>
   <si>
-    <t>VC0919</t>
+    <t>1uBd97</t>
   </si>
   <si>
     <t>RT 003 / RW 001</t>
@@ -59,7 +59,7 @@
     <t>RT003_RW001</t>
   </si>
   <si>
-    <t>0lgY38</t>
+    <t>xyo149</t>
   </si>
   <si>
     <t>RT 004 / RW 001</t>
@@ -68,7 +68,7 @@
     <t>RT004_RW001</t>
   </si>
   <si>
-    <t>GOhc14</t>
+    <t>r4IY75</t>
   </si>
   <si>
     <t>RT 005 / RW 001</t>
@@ -77,7 +77,7 @@
     <t>RT005_RW001</t>
   </si>
   <si>
-    <t>qaJc67</t>
+    <t>LgJt39</t>
   </si>
   <si>
     <t>RT 006 / RW 001</t>
@@ -86,7 +86,7 @@
     <t>RT006_RW001</t>
   </si>
   <si>
-    <t>s2Z875</t>
+    <t>ThmJ96</t>
   </si>
   <si>
     <t>RT 007 / RW 001</t>
@@ -95,7 +95,7 @@
     <t>RT007_RW001</t>
   </si>
   <si>
-    <t>CnTP60</t>
+    <t>n2k872</t>
   </si>
   <si>
     <t>RT 008 / RW 001</t>
@@ -104,7 +104,7 @@
     <t>RT008_RW001</t>
   </si>
   <si>
-    <t>NaZ421</t>
+    <t>F3cb24</t>
   </si>
   <si>
     <t>RT 009 / RW 001</t>
@@ -113,7 +113,7 @@
     <t>RT009_RW001</t>
   </si>
   <si>
-    <t>LeeY53</t>
+    <t>mIWJ83</t>
   </si>
   <si>
     <t>RT 010 / RW 001</t>
@@ -122,97 +122,232 @@
     <t>RT010_RW001</t>
   </si>
   <si>
-    <t>QbE547</t>
-  </si>
-  <si>
-    <t>RT 001 / RW 002</t>
-  </si>
-  <si>
-    <t>RT001_RW002</t>
-  </si>
-  <si>
-    <t>gLz455</t>
-  </si>
-  <si>
-    <t>RT 002 / RW 002</t>
-  </si>
-  <si>
-    <t>RT002_RW002</t>
-  </si>
-  <si>
-    <t>YY4Y11</t>
-  </si>
-  <si>
-    <t>RT 003 / RW 002</t>
-  </si>
-  <si>
-    <t>RT003_RW002</t>
-  </si>
-  <si>
-    <t>jCQY95</t>
-  </si>
-  <si>
-    <t>RT 004 / RW 002</t>
-  </si>
-  <si>
-    <t>RT004_RW002</t>
-  </si>
-  <si>
-    <t>a9jh80</t>
-  </si>
-  <si>
-    <t>RT 005 / RW 002</t>
-  </si>
-  <si>
-    <t>RT005_RW002</t>
-  </si>
-  <si>
-    <t>h3AX24</t>
-  </si>
-  <si>
-    <t>RT 006 / RW 002</t>
-  </si>
-  <si>
-    <t>RT006_RW002</t>
-  </si>
-  <si>
-    <t>GGzX42</t>
-  </si>
-  <si>
-    <t>RT 007 / RW 002</t>
-  </si>
-  <si>
-    <t>RT007_RW002</t>
-  </si>
-  <si>
-    <t>nuOS65</t>
-  </si>
-  <si>
-    <t>RT 008 / RW 002</t>
-  </si>
-  <si>
-    <t>RT008_RW002</t>
-  </si>
-  <si>
-    <t>4gNQ67</t>
-  </si>
-  <si>
-    <t>RT 009 / RW 002</t>
-  </si>
-  <si>
-    <t>RT009_RW002</t>
-  </si>
-  <si>
-    <t>BQ7h44</t>
-  </si>
-  <si>
-    <t>RT 010 / RW 002</t>
-  </si>
-  <si>
-    <t>RT010_RW002</t>
-  </si>
-  <si>
-    <t>2d0d98</t>
+    <t>iHZg77</t>
+  </si>
+  <si>
+    <t>RT 011 / RW 001</t>
+  </si>
+  <si>
+    <t>RT011_RW001</t>
+  </si>
+  <si>
+    <t>rcv416</t>
+  </si>
+  <si>
+    <t>RT 012 / RW 001</t>
+  </si>
+  <si>
+    <t>RT012_RW001</t>
+  </si>
+  <si>
+    <t>pNxj48</t>
+  </si>
+  <si>
+    <t>RT 013 / RW 001</t>
+  </si>
+  <si>
+    <t>RT013_RW001</t>
+  </si>
+  <si>
+    <t>O6Ee78</t>
+  </si>
+  <si>
+    <t>RT 014 / RW 001</t>
+  </si>
+  <si>
+    <t>RT014_RW001</t>
+  </si>
+  <si>
+    <t>vDaX71</t>
+  </si>
+  <si>
+    <t>RT 015 / RW 001</t>
+  </si>
+  <si>
+    <t>RT015_RW001</t>
+  </si>
+  <si>
+    <t>vhNG64</t>
+  </si>
+  <si>
+    <t>RT 016 / RW 001</t>
+  </si>
+  <si>
+    <t>RT016_RW001</t>
+  </si>
+  <si>
+    <t>SCII51</t>
+  </si>
+  <si>
+    <t>RT 017 / RW 002</t>
+  </si>
+  <si>
+    <t>RT017_RW002</t>
+  </si>
+  <si>
+    <t>QCJj26</t>
+  </si>
+  <si>
+    <t>RT 018 / RW 002</t>
+  </si>
+  <si>
+    <t>RT018_RW002</t>
+  </si>
+  <si>
+    <t>Djlc16</t>
+  </si>
+  <si>
+    <t>RT 019 / RW 002</t>
+  </si>
+  <si>
+    <t>RT019_RW002</t>
+  </si>
+  <si>
+    <t>70v256</t>
+  </si>
+  <si>
+    <t>RT 020 / RW 002</t>
+  </si>
+  <si>
+    <t>RT020_RW002</t>
+  </si>
+  <si>
+    <t>vTJr85</t>
+  </si>
+  <si>
+    <t>RT 021 / RW 002</t>
+  </si>
+  <si>
+    <t>RT021_RW002</t>
+  </si>
+  <si>
+    <t>8khx85</t>
+  </si>
+  <si>
+    <t>RT 022 / RW 002</t>
+  </si>
+  <si>
+    <t>RT022_RW002</t>
+  </si>
+  <si>
+    <t>wzhT26</t>
+  </si>
+  <si>
+    <t>RT 023 / RW 002</t>
+  </si>
+  <si>
+    <t>RT023_RW002</t>
+  </si>
+  <si>
+    <t>stqq28</t>
+  </si>
+  <si>
+    <t>RT 024 / RW 002</t>
+  </si>
+  <si>
+    <t>RT024_RW002</t>
+  </si>
+  <si>
+    <t>jt9N75</t>
+  </si>
+  <si>
+    <t>RT 025 / RW 002</t>
+  </si>
+  <si>
+    <t>RT025_RW002</t>
+  </si>
+  <si>
+    <t>42ua11</t>
+  </si>
+  <si>
+    <t>RT 026 / RW 002</t>
+  </si>
+  <si>
+    <t>RT026_RW002</t>
+  </si>
+  <si>
+    <t>vR7A55</t>
+  </si>
+  <si>
+    <t>RT 027 / RW 002</t>
+  </si>
+  <si>
+    <t>RT027_RW002</t>
+  </si>
+  <si>
+    <t>T7fK76</t>
+  </si>
+  <si>
+    <t>RT 028 / RW 002</t>
+  </si>
+  <si>
+    <t>RT028_RW002</t>
+  </si>
+  <si>
+    <t>RYSu50</t>
+  </si>
+  <si>
+    <t>RT 029 / RW 002</t>
+  </si>
+  <si>
+    <t>RT029_RW002</t>
+  </si>
+  <si>
+    <t>ra9q88</t>
+  </si>
+  <si>
+    <t>RT 030 / RW 002</t>
+  </si>
+  <si>
+    <t>RT030_RW002</t>
+  </si>
+  <si>
+    <t>iUZu83</t>
+  </si>
+  <si>
+    <t>RT 031 / RW 002</t>
+  </si>
+  <si>
+    <t>RT031_RW002</t>
+  </si>
+  <si>
+    <t>6PZk64</t>
+  </si>
+  <si>
+    <t>RT 032 / RW 002</t>
+  </si>
+  <si>
+    <t>RT032_RW002</t>
+  </si>
+  <si>
+    <t>GHwv77</t>
+  </si>
+  <si>
+    <t>RT 033 / RW 002</t>
+  </si>
+  <si>
+    <t>RT033_RW002</t>
+  </si>
+  <si>
+    <t>X5s118</t>
+  </si>
+  <si>
+    <t>RT 034 / RW 002</t>
+  </si>
+  <si>
+    <t>RT034_RW002</t>
+  </si>
+  <si>
+    <t>eJkK26</t>
+  </si>
+  <si>
+    <t>RT 035 / RW 002</t>
+  </si>
+  <si>
+    <t>RT035_RW002</t>
+  </si>
+  <si>
+    <t>p3jf99</t>
   </si>
 </sst>
 </file>
@@ -552,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,6 +935,171 @@
       </c>
       <c r="C22" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
